--- a/artfynd/A 806-2022.xlsx
+++ b/artfynd/A 806-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>108284626</v>
+        <v>108284600</v>
       </c>
       <c r="B2" t="n">
         <v>56395</v>
@@ -716,16 +716,18 @@
       <c r="I2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>445491.413390337</v>
+        <v>446148.6368650644</v>
       </c>
       <c r="R2" t="n">
-        <v>7066642.902210473</v>
+        <v>7067055.75327965</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -772,7 +774,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -799,7 +801,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>108284600</v>
+        <v>108284599</v>
       </c>
       <c r="B3" t="n">
         <v>56395</v>
@@ -835,18 +837,16 @@
       <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>446148.6368650644</v>
+        <v>445958.5950188721</v>
       </c>
       <c r="R3" t="n">
-        <v>7067055.75327965</v>
+        <v>7067152.508404375</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -893,7 +893,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -920,7 +920,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>108284595</v>
+        <v>108284602</v>
       </c>
       <c r="B4" t="n">
         <v>56395</v>
@@ -962,10 +962,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>445777.1115666777</v>
+        <v>445980.2900455986</v>
       </c>
       <c r="R4" t="n">
-        <v>7067101.114132132</v>
+        <v>7067175.623724443</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>108284617</v>
+        <v>108284607</v>
       </c>
       <c r="B5" t="n">
         <v>56395</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>445701.9486558163</v>
+        <v>446215.3276595616</v>
       </c>
       <c r="R5" t="n">
-        <v>7066988.069889454</v>
+        <v>7067323.603611789</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>108284610</v>
+        <v>108284603</v>
       </c>
       <c r="B6" t="n">
         <v>56395</v>
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>445812.8195369632</v>
+        <v>446027.4779930418</v>
       </c>
       <c r="R6" t="n">
-        <v>7067216.605861456</v>
+        <v>7067236.412867477</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1279,7 +1279,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>108284628</v>
+        <v>108284592</v>
       </c>
       <c r="B7" t="n">
         <v>56395</v>
@@ -1315,16 +1315,18 @@
       <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>445571.6780973275</v>
+        <v>445894.4498316488</v>
       </c>
       <c r="R7" t="n">
-        <v>7066356.068251712</v>
+        <v>7067008.694442076</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1371,7 +1373,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1398,7 +1400,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>108284587</v>
+        <v>108284601</v>
       </c>
       <c r="B8" t="n">
         <v>56395</v>
@@ -1440,10 +1442,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>446065.8891807119</v>
+        <v>445989.901436542</v>
       </c>
       <c r="R8" t="n">
-        <v>7066731.868754654</v>
+        <v>7067192.741834572</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1517,7 +1519,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>108284645</v>
+        <v>108284598</v>
       </c>
       <c r="B9" t="n">
         <v>56395</v>
@@ -1553,18 +1555,16 @@
       <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>445498.396078321</v>
+        <v>445864.3809054123</v>
       </c>
       <c r="R9" t="n">
-        <v>7066379.05269401</v>
+        <v>7067170.076861309</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1638,7 +1638,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>108284640</v>
+        <v>108284609</v>
       </c>
       <c r="B10" t="n">
         <v>56395</v>
@@ -1680,10 +1680,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>445485.1060079595</v>
+        <v>445935.5556236911</v>
       </c>
       <c r="R10" t="n">
-        <v>7066174.932597376</v>
+        <v>7067232.225898764</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>108284648</v>
+        <v>108284605</v>
       </c>
       <c r="B11" t="n">
         <v>56395</v>
@@ -1799,10 +1799,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>445363.18742266</v>
+        <v>446167.0935677667</v>
       </c>
       <c r="R11" t="n">
-        <v>7066414.191571997</v>
+        <v>7067279.227252661</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>108284590</v>
+        <v>108284593</v>
       </c>
       <c r="B12" t="n">
         <v>56395</v>
@@ -1912,18 +1912,16 @@
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>446143.0789850811</v>
+        <v>445902.4882497647</v>
       </c>
       <c r="R12" t="n">
-        <v>7066886.112501987</v>
+        <v>7067011.658803724</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1970,7 +1968,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1997,7 +1995,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>108284625</v>
+        <v>108284608</v>
       </c>
       <c r="B13" t="n">
         <v>56395</v>
@@ -2033,18 +2031,16 @@
       <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>445440.3918682674</v>
+        <v>446168.1291184587</v>
       </c>
       <c r="R13" t="n">
-        <v>7066695.197414016</v>
+        <v>7067339.917908906</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2091,7 +2087,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2118,7 +2114,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>108284646</v>
+        <v>108284648</v>
       </c>
       <c r="B14" t="n">
         <v>56395</v>
@@ -2160,10 +2156,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>445485.6202318262</v>
+        <v>445363.18742266</v>
       </c>
       <c r="R14" t="n">
-        <v>7066384.592460061</v>
+        <v>7066414.191571997</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2237,7 +2233,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>108284599</v>
+        <v>108284650</v>
       </c>
       <c r="B15" t="n">
         <v>56395</v>
@@ -2279,10 +2275,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>445958.5950188721</v>
+        <v>445269.5108960064</v>
       </c>
       <c r="R15" t="n">
-        <v>7067152.508404375</v>
+        <v>7066310.317866464</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2356,7 +2352,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>108284637</v>
+        <v>108284649</v>
       </c>
       <c r="B16" t="n">
         <v>56395</v>
@@ -2400,10 +2396,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>445521.5771305248</v>
+        <v>445327.1088446653</v>
       </c>
       <c r="R16" t="n">
-        <v>7066153.468257049</v>
+        <v>7066406.837734086</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2477,7 +2473,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>108284602</v>
+        <v>108284626</v>
       </c>
       <c r="B17" t="n">
         <v>56395</v>
@@ -2519,10 +2515,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>445980.2900455986</v>
+        <v>445491.413390337</v>
       </c>
       <c r="R17" t="n">
-        <v>7067175.623724443</v>
+        <v>7066642.902210473</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2596,7 +2592,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>108284623</v>
+        <v>108284595</v>
       </c>
       <c r="B18" t="n">
         <v>56395</v>
@@ -2638,10 +2634,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>445622.4880229445</v>
+        <v>445777.1115666777</v>
       </c>
       <c r="R18" t="n">
-        <v>7066677.428239473</v>
+        <v>7067101.114132132</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2715,7 +2711,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>108284642</v>
+        <v>108284617</v>
       </c>
       <c r="B19" t="n">
         <v>56395</v>
@@ -2751,18 +2747,16 @@
       <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>445525.3634059895</v>
+        <v>445701.9486558163</v>
       </c>
       <c r="R19" t="n">
-        <v>7066321.406034276</v>
+        <v>7066988.069889454</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2809,7 +2803,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2836,7 +2830,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>108284632</v>
+        <v>108284610</v>
       </c>
       <c r="B20" t="n">
         <v>56395</v>
@@ -2872,16 +2866,18 @@
       <c r="I20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>445573.746970184</v>
+        <v>445812.8195369632</v>
       </c>
       <c r="R20" t="n">
-        <v>7066192.907535586</v>
+        <v>7067216.605861456</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2928,7 +2924,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2955,7 +2951,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>108284612</v>
+        <v>108284628</v>
       </c>
       <c r="B21" t="n">
         <v>56395</v>
@@ -2991,18 +2987,16 @@
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>445715.8214755537</v>
+        <v>445571.6780973275</v>
       </c>
       <c r="R21" t="n">
-        <v>7067149.585549216</v>
+        <v>7066356.068251712</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3049,7 +3043,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3076,7 +3070,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>108284607</v>
+        <v>108284587</v>
       </c>
       <c r="B22" t="n">
         <v>56395</v>
@@ -3118,10 +3112,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>446215.3276595616</v>
+        <v>446065.8891807119</v>
       </c>
       <c r="R22" t="n">
-        <v>7067323.603611789</v>
+        <v>7066731.868754654</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3195,7 +3189,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>108284643</v>
+        <v>108284645</v>
       </c>
       <c r="B23" t="n">
         <v>56395</v>
@@ -3239,10 +3233,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>445538.9044514265</v>
+        <v>445498.396078321</v>
       </c>
       <c r="R23" t="n">
-        <v>7066334.470368772</v>
+        <v>7066379.05269401</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3316,7 +3310,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>108284629</v>
+        <v>108284640</v>
       </c>
       <c r="B24" t="n">
         <v>56395</v>
@@ -3358,10 +3352,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>445577.922887311</v>
+        <v>445485.1060079595</v>
       </c>
       <c r="R24" t="n">
-        <v>7066254.894958487</v>
+        <v>7066174.932597376</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3435,7 +3429,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>108284635</v>
+        <v>108284590</v>
       </c>
       <c r="B25" t="n">
         <v>56395</v>
@@ -3471,16 +3465,18 @@
       <c r="I25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>445554.0248176802</v>
+        <v>446143.0789850811</v>
       </c>
       <c r="R25" t="n">
-        <v>7066104.589225682</v>
+        <v>7066886.112501987</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3527,7 +3523,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3554,7 +3550,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>108284603</v>
+        <v>108284625</v>
       </c>
       <c r="B26" t="n">
         <v>56395</v>
@@ -3598,10 +3594,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>446027.4779930418</v>
+        <v>445440.3918682674</v>
       </c>
       <c r="R26" t="n">
-        <v>7067236.412867477</v>
+        <v>7066695.197414016</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3648,7 +3644,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3675,7 +3671,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>108284633</v>
+        <v>108284646</v>
       </c>
       <c r="B27" t="n">
         <v>56395</v>
@@ -3711,18 +3707,16 @@
       <c r="I27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>445559.4946398541</v>
+        <v>445485.6202318262</v>
       </c>
       <c r="R27" t="n">
-        <v>7066138.628676434</v>
+        <v>7066384.592460061</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3769,7 +3763,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3796,7 +3790,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>108284588</v>
+        <v>108284637</v>
       </c>
       <c r="B28" t="n">
         <v>56395</v>
@@ -3832,16 +3826,18 @@
       <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>446079.2944983342</v>
+        <v>445521.5771305248</v>
       </c>
       <c r="R28" t="n">
-        <v>7066711.252045063</v>
+        <v>7066153.468257049</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3888,7 +3884,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3915,7 +3911,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>108284650</v>
+        <v>108284623</v>
       </c>
       <c r="B29" t="n">
         <v>56395</v>
@@ -3957,10 +3953,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>445269.5108960064</v>
+        <v>445622.4880229445</v>
       </c>
       <c r="R29" t="n">
-        <v>7066310.317866464</v>
+        <v>7066677.428239473</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4034,7 +4030,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>108284597</v>
+        <v>108284642</v>
       </c>
       <c r="B30" t="n">
         <v>56395</v>
@@ -4078,10 +4074,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>445839.6481800398</v>
+        <v>445525.3634059895</v>
       </c>
       <c r="R30" t="n">
-        <v>7067151.002761966</v>
+        <v>7066321.406034276</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4155,7 +4151,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>108284592</v>
+        <v>108284632</v>
       </c>
       <c r="B31" t="n">
         <v>56395</v>
@@ -4191,18 +4187,16 @@
       <c r="I31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>445894.4498316488</v>
+        <v>445573.746970184</v>
       </c>
       <c r="R31" t="n">
-        <v>7067008.694442076</v>
+        <v>7066192.907535586</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4249,7 +4243,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4276,7 +4270,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>108284630</v>
+        <v>108284612</v>
       </c>
       <c r="B32" t="n">
         <v>56395</v>
@@ -4312,16 +4306,18 @@
       <c r="I32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>445582.2455927092</v>
+        <v>445715.8214755537</v>
       </c>
       <c r="R32" t="n">
-        <v>7066248.171261234</v>
+        <v>7067149.585549216</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4368,7 +4364,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4395,7 +4391,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>108284594</v>
+        <v>108284643</v>
       </c>
       <c r="B33" t="n">
         <v>56395</v>
@@ -4439,10 +4435,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>445764.4086695811</v>
+        <v>445538.9044514265</v>
       </c>
       <c r="R33" t="n">
-        <v>7067084.935577983</v>
+        <v>7066334.470368772</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4516,7 +4512,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>108284591</v>
+        <v>108284629</v>
       </c>
       <c r="B34" t="n">
         <v>56395</v>
@@ -4558,10 +4554,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>446123.9721239914</v>
+        <v>445577.922887311</v>
       </c>
       <c r="R34" t="n">
-        <v>7066884.665925723</v>
+        <v>7066254.894958487</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4635,7 +4631,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>108284584</v>
+        <v>108284635</v>
       </c>
       <c r="B35" t="n">
         <v>56395</v>
@@ -4677,10 +4673,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>445899.6251435542</v>
+        <v>445554.0248176802</v>
       </c>
       <c r="R35" t="n">
-        <v>7066585.793257814</v>
+        <v>7066104.589225682</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4754,7 +4750,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>108284611</v>
+        <v>108284633</v>
       </c>
       <c r="B36" t="n">
         <v>56395</v>
@@ -4790,16 +4786,18 @@
       <c r="I36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>445752.5703320839</v>
+        <v>445559.4946398541</v>
       </c>
       <c r="R36" t="n">
-        <v>7067170.667837338</v>
+        <v>7066138.628676434</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4846,7 +4844,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4873,7 +4871,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>108284631</v>
+        <v>108284588</v>
       </c>
       <c r="B37" t="n">
         <v>56395</v>
@@ -4909,18 +4907,16 @@
       <c r="I37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>445591.029903172</v>
+        <v>446079.2944983342</v>
       </c>
       <c r="R37" t="n">
-        <v>7066191.279708331</v>
+        <v>7066711.252045063</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4967,7 +4963,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4994,7 +4990,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>108284621</v>
+        <v>108284597</v>
       </c>
       <c r="B38" t="n">
         <v>56395</v>
@@ -5030,16 +5026,18 @@
       <c r="I38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>445758.4608000555</v>
+        <v>445839.6481800398</v>
       </c>
       <c r="R38" t="n">
-        <v>7066842.176771935</v>
+        <v>7067151.002761966</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5086,7 +5084,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5113,7 +5111,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>108284641</v>
+        <v>108284630</v>
       </c>
       <c r="B39" t="n">
         <v>56395</v>
@@ -5149,18 +5147,16 @@
       <c r="I39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>445551.4063951484</v>
+        <v>445582.2455927092</v>
       </c>
       <c r="R39" t="n">
-        <v>7066235.848016623</v>
+        <v>7066248.171261234</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5207,7 +5203,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5234,7 +5230,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>108284644</v>
+        <v>108284594</v>
       </c>
       <c r="B40" t="n">
         <v>56395</v>
@@ -5270,16 +5266,18 @@
       <c r="I40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>445522.9457421207</v>
+        <v>445764.4086695811</v>
       </c>
       <c r="R40" t="n">
-        <v>7066361.341655433</v>
+        <v>7067084.935577983</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5326,7 +5324,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5353,7 +5351,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>108284601</v>
+        <v>108284591</v>
       </c>
       <c r="B41" t="n">
         <v>56395</v>
@@ -5395,10 +5393,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>445989.901436542</v>
+        <v>446123.9721239914</v>
       </c>
       <c r="R41" t="n">
-        <v>7067192.741834572</v>
+        <v>7066884.665925723</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5472,7 +5470,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>108284586</v>
+        <v>108284584</v>
       </c>
       <c r="B42" t="n">
         <v>56395</v>
@@ -5508,18 +5506,16 @@
       <c r="I42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>445912.9292284362</v>
+        <v>445899.6251435542</v>
       </c>
       <c r="R42" t="n">
-        <v>7066636.979384066</v>
+        <v>7066585.793257814</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5566,7 +5562,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5593,7 +5589,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>108284598</v>
+        <v>108284611</v>
       </c>
       <c r="B43" t="n">
         <v>56395</v>
@@ -5635,10 +5631,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>445864.3809054123</v>
+        <v>445752.5703320839</v>
       </c>
       <c r="R43" t="n">
-        <v>7067170.076861309</v>
+        <v>7067170.667837338</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5712,7 +5708,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>108284609</v>
+        <v>108284631</v>
       </c>
       <c r="B44" t="n">
         <v>56395</v>
@@ -5748,16 +5744,18 @@
       <c r="I44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>445935.5556236911</v>
+        <v>445591.029903172</v>
       </c>
       <c r="R44" t="n">
-        <v>7067232.225898764</v>
+        <v>7066191.279708331</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5804,7 +5802,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5831,7 +5829,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>108284624</v>
+        <v>108284621</v>
       </c>
       <c r="B45" t="n">
         <v>56395</v>
@@ -5867,18 +5865,16 @@
       <c r="I45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>445602.8345933859</v>
+        <v>445758.4608000555</v>
       </c>
       <c r="R45" t="n">
-        <v>7066747.351407844</v>
+        <v>7066842.176771935</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5925,7 +5921,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5952,7 +5948,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>108284589</v>
+        <v>108284641</v>
       </c>
       <c r="B46" t="n">
         <v>56395</v>
@@ -5996,10 +5992,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>446150.92844487</v>
+        <v>445551.4063951484</v>
       </c>
       <c r="R46" t="n">
-        <v>7066878.00118422</v>
+        <v>7066235.848016623</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6073,7 +6069,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>108284647</v>
+        <v>108284644</v>
       </c>
       <c r="B47" t="n">
         <v>56395</v>
@@ -6115,10 +6111,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>445482.2083095369</v>
+        <v>445522.9457421207</v>
       </c>
       <c r="R47" t="n">
-        <v>7066392.630058168</v>
+        <v>7066361.341655433</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6192,7 +6188,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>108284634</v>
+        <v>108284586</v>
       </c>
       <c r="B48" t="n">
         <v>56395</v>
@@ -6228,16 +6224,18 @@
       <c r="I48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>445552.1274977272</v>
+        <v>445912.9292284362</v>
       </c>
       <c r="R48" t="n">
-        <v>7066097.529170022</v>
+        <v>7066636.979384066</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6284,7 +6282,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6311,7 +6309,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>108284585</v>
+        <v>108284624</v>
       </c>
       <c r="B49" t="n">
         <v>56395</v>
@@ -6347,16 +6345,18 @@
       <c r="I49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>445917.0134450899</v>
+        <v>445602.8345933859</v>
       </c>
       <c r="R49" t="n">
-        <v>7066642.228046751</v>
+        <v>7066747.351407844</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6403,7 +6403,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6430,7 +6430,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>108284605</v>
+        <v>108284589</v>
       </c>
       <c r="B50" t="n">
         <v>56395</v>
@@ -6466,16 +6466,18 @@
       <c r="I50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>446167.0935677667</v>
+        <v>446150.92844487</v>
       </c>
       <c r="R50" t="n">
-        <v>7067279.227252661</v>
+        <v>7066878.00118422</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6522,7 +6524,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6549,7 +6551,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>108284593</v>
+        <v>108284647</v>
       </c>
       <c r="B51" t="n">
         <v>56395</v>
@@ -6591,10 +6593,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>445902.4882497647</v>
+        <v>445482.2083095369</v>
       </c>
       <c r="R51" t="n">
-        <v>7067011.658803724</v>
+        <v>7066392.630058168</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6668,7 +6670,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>108284616</v>
+        <v>108284634</v>
       </c>
       <c r="B52" t="n">
         <v>56395</v>
@@ -6704,18 +6706,16 @@
       <c r="I52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>445645.0345532791</v>
+        <v>445552.1274977272</v>
       </c>
       <c r="R52" t="n">
-        <v>7066981.515821394</v>
+        <v>7066097.529170022</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6762,7 +6762,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6789,7 +6789,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>108284618</v>
+        <v>108284585</v>
       </c>
       <c r="B53" t="n">
         <v>56395</v>
@@ -6825,18 +6825,16 @@
       <c r="I53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>445711.8548176893</v>
+        <v>445917.0134450899</v>
       </c>
       <c r="R53" t="n">
-        <v>7066970.615606768</v>
+        <v>7066642.228046751</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6883,7 +6881,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>ringhack gamla</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6910,7 +6908,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>108284608</v>
+        <v>108284616</v>
       </c>
       <c r="B54" t="n">
         <v>56395</v>
@@ -6946,16 +6944,18 @@
       <c r="I54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
           <t>Finnsäter N, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>446168.1291184587</v>
+        <v>445645.0345532791</v>
       </c>
       <c r="R54" t="n">
-        <v>7067339.917908906</v>
+        <v>7066981.515821394</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -7002,7 +7002,7 @@
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -7029,7 +7029,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>108284649</v>
+        <v>108284618</v>
       </c>
       <c r="B55" t="n">
         <v>56395</v>
@@ -7073,10 +7073,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>445327.1088446653</v>
+        <v>445711.8548176893</v>
       </c>
       <c r="R55" t="n">
-        <v>7066406.837734086</v>
+        <v>7066970.615606768</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7123,7 +7123,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack gamla</t>
         </is>
       </c>
       <c r="AD55" t="b">
